--- a/auxiliary/features.xlsx
+++ b/auxiliary/features.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41395550350ana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41395550350ana\Desktop\aliyurekli\github\RecSys-MPD\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,12 +95,6 @@
     <t>Submission order</t>
   </si>
   <si>
-    <t>Lucene score</t>
-  </si>
-  <si>
-    <t>Prediction position</t>
-  </si>
-  <si>
     <t>Jaccard distance of playlist title and track name</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>Audio tempo</t>
+  </si>
+  <si>
+    <t>Max Lucene score</t>
+  </si>
+  <si>
+    <t>Search result frequency</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">

--- a/auxiliary/features.xlsx
+++ b/auxiliary/features.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -126,14 +126,25 @@
   </si>
   <si>
     <t>Search result frequency</t>
+  </si>
+  <si>
+    <t>Geometric mean of search result frequency and max Lucene score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -149,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,15 +168,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,280 +480,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
